--- a/1.xlsx
+++ b/1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{6ECC54BD-8141-43C4-9227-849D2F0AC5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9A7B814-B011-4094-9929-4AD6ACF7953A}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{6ECC54BD-8141-43C4-9227-849D2F0AC5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8390D2C-0ECF-494E-915F-3E2A816EDF9B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{6ECC54BD-8141-43C4-9227-849D2F0AC5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8390D2C-0ECF-494E-915F-3E2A816EDF9B}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{6ECC54BD-8141-43C4-9227-849D2F0AC5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E7C1C49-7AC1-49B3-8240-9A898D4E0F12}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4215" yWindow="585" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>AProVE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,38 @@
   </si>
   <si>
     <t>ismt(m)_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z3(pn)_solved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z3(pn)_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z3(pb)_solved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z3(pb)_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ours(c+p+d)_solved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ours(c+p+d)_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ours(c+p)_solved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ours(c+p)_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -660,6 +692,46 @@
         <v>36</v>
       </c>
     </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{6ECC54BD-8141-43C4-9227-849D2F0AC5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E7C1C49-7AC1-49B3-8240-9A898D4E0F12}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67EF7B3-1B9D-450E-9C99-6CACEC1E1665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4215" yWindow="585" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>AProVE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +187,14 @@
   </si>
   <si>
     <t>ours(c+p)_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ismt(c+p+e)_solved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ismt(c+p+e)_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,22 +520,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.125" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -562,174 +570,184 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\hrcarryu\SAT-learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A2EC84-655D-43FC-8E8F-49451736CE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F623E7CC-F9F1-4C8D-968B-0032F988E2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,173 +49,175 @@
     <t>ITS</t>
   </si>
   <si>
+    <t>ismt_c_p_solved</t>
+  </si>
+  <si>
+    <t>ismt_c_p_time</t>
+  </si>
+  <si>
+    <t>cvc5_solved</t>
+  </si>
+  <si>
+    <t>cvc5_time</t>
+  </si>
+  <si>
+    <t>ismt_c_p_e_solved</t>
+  </si>
+  <si>
+    <t>ismt_c_p_e_time</t>
+  </si>
+  <si>
+    <t>mathsat_solved</t>
+  </si>
+  <si>
+    <t>mathsat_time</t>
+  </si>
+  <si>
+    <t>ismt_m_p_d_e_solved</t>
+  </si>
+  <si>
+    <t>ismt_m_p_d_e_time</t>
+  </si>
+  <si>
+    <t>z3_pn_solved</t>
+  </si>
+  <si>
+    <t>z3_pn_time</t>
+  </si>
+  <si>
+    <t>ismt_hr_solved</t>
+  </si>
+  <si>
+    <t>ismt_hr_time</t>
+  </si>
+  <si>
+    <t>z3_b_solved</t>
+  </si>
+  <si>
+    <t>z3_b_time</t>
+  </si>
+  <si>
+    <t>yices2_solved</t>
+  </si>
+  <si>
+    <t>yices2_time</t>
+  </si>
+  <si>
+    <t>z3_4_8_13_solved</t>
+  </si>
+  <si>
+    <t>z3_4_8_13_time</t>
+  </si>
+  <si>
+    <t>ismt_c_p_e_359_solved</t>
+  </si>
+  <si>
+    <t>ismt_c_p_e_359_time</t>
+  </si>
+  <si>
+    <t>ismt_k_p_d_e_359_solved</t>
+  </si>
+  <si>
+    <t>ismt_k_p_d_e_359_time</t>
+  </si>
+  <si>
+    <t>z3_4_8_14_solved</t>
+  </si>
+  <si>
+    <t>z3_4_8_14_time</t>
+  </si>
+  <si>
+    <t>cvc5_a_solved</t>
+  </si>
+  <si>
+    <t>cvc5_a_time</t>
+  </si>
+  <si>
+    <t>ismt_k_p_d_e_solved</t>
+  </si>
+  <si>
+    <t>ismt_k_p_d_e_time</t>
+  </si>
+  <si>
+    <t>smtrat_solved</t>
+  </si>
+  <si>
+    <t>smtrat_time</t>
+  </si>
+  <si>
+    <t>cvc5_r_solved</t>
+  </si>
+  <si>
+    <t>cvc5_r_time</t>
+  </si>
+  <si>
+    <t>z3_pb_solved</t>
+  </si>
+  <si>
+    <t>z3_pb_time</t>
+  </si>
+  <si>
+    <t>z3_solved</t>
+  </si>
+  <si>
+    <t>z3_time</t>
+  </si>
+  <si>
+    <t>ismt_c_p_d_e_solved</t>
+  </si>
+  <si>
+    <t>ismt_c_p_d_e_time</t>
+  </si>
+  <si>
+    <t>ismt_c_solved</t>
+  </si>
+  <si>
+    <t>ismt_c_time</t>
+  </si>
+  <si>
+    <t>ismt_c_p_d_e_359_solved</t>
+  </si>
+  <si>
+    <t>ismt_c_p_d_e_359_time</t>
+  </si>
+  <si>
+    <t>z3_n_solved</t>
+  </si>
+  <si>
+    <t>z3_n_time</t>
+  </si>
+  <si>
+    <t>ismt_c_p_d_solved</t>
+  </si>
+  <si>
+    <t>ismt_c_p_d_time</t>
+  </si>
+  <si>
+    <t>aprove_solved</t>
+  </si>
+  <si>
+    <t>aprove_time</t>
+  </si>
+  <si>
+    <t>cvc5_b_solved</t>
+  </si>
+  <si>
+    <t>cvc5_b_time</t>
+  </si>
+  <si>
     <t>SAT14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>total</t>
-  </si>
-  <si>
-    <t>ismt_c_p_solved</t>
-  </si>
-  <si>
-    <t>ismt_c_p_time</t>
-  </si>
-  <si>
-    <t>cvc5_solved</t>
-  </si>
-  <si>
-    <t>cvc5_time</t>
-  </si>
-  <si>
-    <t>ismt_c_p_e_solved</t>
-  </si>
-  <si>
-    <t>ismt_c_p_e_time</t>
-  </si>
-  <si>
-    <t>mathsat_solved</t>
-  </si>
-  <si>
-    <t>mathsat_time</t>
-  </si>
-  <si>
-    <t>ismt_m_p_d_e_solved</t>
-  </si>
-  <si>
-    <t>ismt_m_p_d_e_time</t>
-  </si>
-  <si>
-    <t>z3_pn_solved</t>
-  </si>
-  <si>
-    <t>z3_pn_time</t>
-  </si>
-  <si>
-    <t>ismt_hr_solved</t>
-  </si>
-  <si>
-    <t>ismt_hr_time</t>
-  </si>
-  <si>
-    <t>z3_b_solved</t>
-  </si>
-  <si>
-    <t>z3_b_time</t>
-  </si>
-  <si>
-    <t>yices2_solved</t>
-  </si>
-  <si>
-    <t>yices2_time</t>
-  </si>
-  <si>
-    <t>z3_4_8_13_solved</t>
-  </si>
-  <si>
-    <t>z3_4_8_13_time</t>
-  </si>
-  <si>
-    <t>ismt_c_p_e_359_solved</t>
-  </si>
-  <si>
-    <t>ismt_c_p_e_359_time</t>
-  </si>
-  <si>
-    <t>ismt_k_p_d_e_359_solved</t>
-  </si>
-  <si>
-    <t>ismt_k_p_d_e_359_time</t>
-  </si>
-  <si>
-    <t>z3_4_8_14_solved</t>
-  </si>
-  <si>
-    <t>z3_4_8_14_time</t>
-  </si>
-  <si>
-    <t>cvc5_a_solved</t>
-  </si>
-  <si>
-    <t>cvc5_a_time</t>
-  </si>
-  <si>
-    <t>ismt_k_p_d_e_solved</t>
-  </si>
-  <si>
-    <t>ismt_k_p_d_e_time</t>
-  </si>
-  <si>
-    <t>smtrat_solved</t>
-  </si>
-  <si>
-    <t>smtrat_time</t>
-  </si>
-  <si>
-    <t>cvc5_r_solved</t>
-  </si>
-  <si>
-    <t>cvc5_r_time</t>
-  </si>
-  <si>
-    <t>z3_pb_solved</t>
-  </si>
-  <si>
-    <t>z3_pb_time</t>
-  </si>
-  <si>
-    <t>z3_solved</t>
-  </si>
-  <si>
-    <t>z3_time</t>
-  </si>
-  <si>
-    <t>ismt_c_p_d_e_solved</t>
-  </si>
-  <si>
-    <t>ismt_c_p_d_e_time</t>
-  </si>
-  <si>
-    <t>ismt_c_solved</t>
-  </si>
-  <si>
-    <t>ismt_c_time</t>
-  </si>
-  <si>
-    <t>ismt_c_p_d_e_359_solved</t>
-  </si>
-  <si>
-    <t>ismt_c_p_d_e_359_time</t>
-  </si>
-  <si>
-    <t>z3_n_solved</t>
-  </si>
-  <si>
-    <t>z3_n_time</t>
-  </si>
-  <si>
-    <t>ismt_c_p_d_solved</t>
-  </si>
-  <si>
-    <t>ismt_c_p_d_time</t>
-  </si>
-  <si>
-    <t>aprove_solved</t>
-  </si>
-  <si>
-    <t>aprove_time</t>
-  </si>
-  <si>
-    <t>cvc5_b_solved</t>
-  </si>
-  <si>
-    <t>cvc5_b_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +237,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -272,9 +281,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -581,11 +593,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="3" max="12" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -615,11 +631,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
+      <c r="K1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -627,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -635,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -643,7 +659,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -651,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -659,7 +675,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -667,7 +683,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -675,7 +691,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -683,7 +699,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -691,7 +707,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -699,7 +715,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -707,7 +723,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -715,7 +731,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -723,7 +739,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -731,7 +747,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -739,7 +755,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -747,7 +763,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -755,7 +771,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -763,7 +779,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -771,7 +787,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -779,7 +795,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -787,7 +803,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -795,7 +811,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -803,7 +819,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -811,7 +827,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -819,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -827,7 +843,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -835,7 +851,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -843,7 +859,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -851,7 +867,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -859,7 +875,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -867,7 +883,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -875,7 +891,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -883,7 +899,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -891,7 +907,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -899,7 +915,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -907,7 +923,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -915,7 +931,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -923,7 +939,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -931,7 +947,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -939,7 +955,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -947,7 +963,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -955,7 +971,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -963,7 +979,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -971,7 +987,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -979,7 +995,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -987,7 +1003,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -995,7 +1011,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1003,7 +1019,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1011,7 +1027,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1019,7 +1035,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1027,7 +1043,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1035,7 +1051,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
